--- a/output/google_maps_data_SPBU_Gunungkidul.xlsx
+++ b/output/google_maps_data_SPBU_Gunungkidul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/SPBU+Gunungkidul/@-7.8056036,110.2400464,11z/data=!4m2!2m1!6e2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,25 +524,24 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.1</v>
+        <v>-7.97308</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.97308</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.602031</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.07/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb3691e8837f5:0x4b7bdc7c96145309!8m2!3d-7.9730802!4d110.6020306!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzs7jj34?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.07/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb3691e8837f5:0x4b7bdc7c96145309!8m2!3d-7.9730802!4d110.6020306!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzs7jj34?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -567,25 +560,24 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.1</v>
+        <v>-7.959134</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.959134</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.593997</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.05/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb3480eef3061:0x6153c7d7a757fb44!8m2!3d-7.9591336!4d110.5939971!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11bzrvmcx3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.05/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb3480eef3061:0x6153c7d7a757fb44!8m2!3d-7.9591336!4d110.5939971!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11bzrvmcx3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -608,25 +600,24 @@
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.2</v>
+        <v>-7.877169</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.877169</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.538275</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.06/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4de433982055:0xf7f9fe435cb6ee9!8m2!3d-7.8771691!4d110.5382748!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzs9szdk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.06/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4de433982055:0xf7f9fe435cb6ee9!8m2!3d-7.8771691!4d110.5382748!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzs9szdk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -653,25 +644,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.4</v>
+        <v>-7.909531</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.909531</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.553521</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Gading+Pertamina+44.558.09/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4da765b93477:0x65b4a555a15b4d91!8m2!3d-7.9095313!4d110.5535208!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzqmx_06?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Gading+Pertamina+44.558.09/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4da765b93477:0x65b4a555a15b4d91!8m2!3d-7.9095313!4d110.5535208!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzqmx_06?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>2 jam lalu</t>
         </is>
@@ -690,25 +680,24 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>-7.980832</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.980832</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.616405</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.02+Baleharjo/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb37d64ea2eab:0x2a0936056410b3c5!8m2!3d-7.9808322!4d110.6164047!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11gb3n3p6r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.02+Baleharjo/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb37d64ea2eab:0x2a0936056410b3c5!8m2!3d-7.9808322!4d110.6164047!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11gb3n3p6r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>11 jam lalu</t>
         </is>
@@ -727,25 +716,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>-7.849736</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.849736</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.483938</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Patuk+Pertamina+44.558.15/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a51e0c16f6b4b:0x7abc18126a46675d!8m2!3d-7.849736!4d110.483938!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11l8gs1gdd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Patuk+Pertamina+44.558.15/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a51e0c16f6b4b:0x7abc18126a46675d!8m2!3d-7.849736!4d110.483938!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11l8gs1gdd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -772,25 +760,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.3</v>
+        <v>-7.967879</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.967879</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.616954</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+43.558.10/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb4a0081870af:0x16e945137aa5e15d!8m2!3d-7.9678789!4d110.6169543!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11bzrrrf9x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+43.558.10/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb4a0081870af:0x16e945137aa5e15d!8m2!3d-7.9678789!4d110.6169543!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11bzrrrf9x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -813,25 +800,24 @@
           <t>0812-4000-5817</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.7</v>
+        <v>-8.034679000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.034679000000001</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.584734</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertamina+44.558.17+Mulo/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb17e127949b3:0x3aef642c359f7014!8m2!3d-8.0346788!4d110.5847338!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11sgz0jg_j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -846,25 +832,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.6</v>
+        <v>-7.980769</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.980769</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.616422</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pertamina+Spbu+4455802/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb37d64f520d7:0xd14b14bced0a59fc!8m2!3d-7.980769!4d110.616422!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzt2_8lb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pertamina+Spbu+4455802/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb37d64f520d7:0xd14b14bced0a59fc!8m2!3d-7.980769!4d110.616422!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzt2_8lb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -883,25 +868,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.3</v>
+        <v>-7.841283</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.841283</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.697712</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.558.18+Ngawen/@-7.8412829,110.409321,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a49f67dc4ac8b:0x32da814eecf1c52f!8m2!3d-7.8412829!4d110.6977121!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11sw_sj7_k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -920,25 +904,24 @@
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.1</v>
+        <v>-7.986333</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.986333</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.62602</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.11+Mijahan/@-7.8412829,110.409321,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb487aae792e9:0x6b1b8304a5530eb7!8m2!3d-7.9863326!4d110.6260197!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11bz_161yp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -961,25 +944,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.3</v>
+        <v>-7.856305</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.856305</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.737085</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.04+keringan+kidul/@-7.8412829,110.409321,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a3674c34df3f1:0x2925f346be7e9971!8m2!3d-7.8563048!4d110.737085!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzqfh490?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.04+keringan+kidul/@-7.8412829,110.409321,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a3674c34df3f1:0x2925f346be7e9971!8m2!3d-7.8563048!4d110.737085!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzqfh490?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1002,25 +984,24 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.4</v>
+        <v>-7.952105</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.952105</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.667276</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+PERTAMINA+44.558.08/@-7.8412829,110.409321,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb529a1131dd5:0x24827558ee25eda0!8m2!3d-7.9521047!4d110.6672761!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11hbb_yfc_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+PERTAMINA+44.558.08/@-7.8412829,110.409321,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb529a1131dd5:0x24827558ee25eda0!8m2!3d-7.9521047!4d110.6672761!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11hbb_yfc_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1043,25 +1024,24 @@
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.5</v>
+        <v>-7.997903</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.997903</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.592408</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Nduwet+Pertamina+44.558.12/@-7.8412829,110.409321,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb3a2655448c7:0x6ac5b8c31b0ebf34!8m2!3d-7.9979031!4d110.5924083!15sChBTUEJVIEd1bnVuZ2tpZHVsWhIiEHNwYnUgZ3VudW5na2lkdWySAQtnYXNfc3RhdGlvbuABAA!16s%2Fg%2F11bzrq0yjh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1076,25 +1056,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.4</v>
+        <v>-7.945873</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.945873</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.558903</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pom+Bensin+Pertamina+Playen/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4d2e75616807:0xbb2f56b0e4c66c5b!8m2!3d-7.9458726!4d110.5589029!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11f54q6gy1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1109,25 +1088,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.4</v>
+        <v>-7.943487</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.943487</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.604541</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.558.19/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4dc2ef6eccd7:0x353ea932c2e1ac1d!8m2!3d-7.9434871!4d110.6045407!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11ty5y549b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1142,25 +1120,24 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>-7.936273</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.936273</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.684364</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+KARANGMOJO+44.558.16/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4b48b5aa0e57:0xbc586e1150365713!8m2!3d-7.9362735!4d110.6843641!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11smlhrf_c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+KARANGMOJO+44.558.16/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4b48b5aa0e57:0xbc586e1150365713!8m2!3d-7.9362735!4d110.6843641!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11smlhrf_c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1183,25 +1160,24 @@
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.4</v>
+        <v>-7.999445</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.999445</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.680575</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Sapiturrang+Pertamina+44.558.13/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb5bbbab3b8a9:0x1e8c368091bc17ad!8m2!3d-7.9994453!4d110.6805751!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11f15g96g5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Sapiturrang+Pertamina+44.558.13/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb5bbbab3b8a9:0x1e8c368091bc17ad!8m2!3d-7.9994453!4d110.6805751!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11f15g96g5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1224,25 +1200,24 @@
           <t>0818-0268-9997</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.5</v>
+        <v>-8.131811000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>-8.131811000000001</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.581235</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertashop+4P.55804/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bbbf902eee705:0x9c9a19577770b36b!8m2!3d-8.131811!4d110.581235!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11r10h8qhj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1257,25 +1232,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>-7.852917</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.852917</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.657764</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Natah+Gunungkidul/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a491d7f05e001:0x9587398854f52e42!8m2!3d-7.8529168!4d110.657764!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11vh_b98tb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1294,25 +1268,24 @@
           <t>0838-6189-2813</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>3.3</v>
+      </c>
       <c r="F23" t="n">
-        <v>3.3</v>
+        <v>-7.923592</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.923592</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.612915</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+4P55815/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4dd40a77bd59:0xce87e827e28fecc1!8m2!3d-7.9235918!4d110.6129153!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11sx0f51lz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+4P55815/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4dd40a77bd59:0xce87e827e28fecc1!8m2!3d-7.9235918!4d110.6129153!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11sx0f51lz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1335,25 +1308,24 @@
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F24" t="n">
-        <v>3.7</v>
+        <v>-7.964079</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.964079</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.513844</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PERTAMINA/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bad5a73b99039:0xdc00cf4ba3778d58!8m2!3d-7.9640792!4d110.513844!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11tg42nqp7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PERTAMINA/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bad5a73b99039:0xdc00cf4ba3778d58!8m2!3d-7.9640792!4d110.513844!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11tg42nqp7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -1372,25 +1344,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>-7.983068</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.983068</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.538256</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pertashop+Grogol+Paliyan+Gunungkidul/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb30da0bca835:0x9e9cec4d75a96426!8m2!3d-7.9830684!4d110.5382561!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rxxhyg3_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pertashop+Grogol+Paliyan+Gunungkidul/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb30da0bca835:0x9e9cec4d75a96426!8m2!3d-7.9830684!4d110.5382561!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rxxhyg3_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1413,25 +1384,24 @@
           <t>0815-6267-895</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.8</v>
+        <v>-8.036288000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>-8.036288000000001</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.468399</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertamini+KinKin+13/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bac2a258bb967:0x11200fb16f990cd9!8m2!3d-8.0362882!4d110.4683993!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11fzf6xbx8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1446,25 +1416,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>3.3</v>
+      </c>
       <c r="F27" t="n">
-        <v>3.3</v>
+        <v>-7.986415</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.986415</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.626021</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Spbu+Cabang+gading/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb487abad3a69:0xe83983e283bd0aa4!8m2!3d-7.9864152!4d110.6260207!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11c1wps0r9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1483,25 +1452,24 @@
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>-7.878808</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.878808</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.563421</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PERTAMINA/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4dcdffa22983:0xb3fd1b96f41a446!8m2!3d-7.8788079!4d110.563421!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11sczq08d6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1524,25 +1492,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.1</v>
+        <v>-7.820712</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.820712</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.42155</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.10+Mantup/@-7.8207124,110.1331592,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a5733c636ab4d:0x51b990fe909ffaef!8m2!3d-7.8207124!4d110.4215503!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzvzb386?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1561,25 +1528,24 @@
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.2</v>
+        <v>-7.810999</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.810999</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.404631</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.02+Ketandan/@-7.8207124,110.1331592,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a57479d2cbe35:0x7debc49faa6cac12!8m2!3d-7.810999!4d110.4046305!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pztzydpb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1598,25 +1564,24 @@
           <t>0858-9144-3097</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.7</v>
+        <v>-8.021653000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.021653000000001</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.627262</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+EMI/@-8.0216528,110.3388708,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb506a273115f:0x19dcc781a52a335e!8m2!3d-8.0216528!4d110.6272619!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11h6qdp_v9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1639,25 +1604,24 @@
           <t>(0274) 4353260</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.3</v>
+        <v>-7.828123</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.828123</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.447537</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+44.557.04/@-7.8281231,110.1591456,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a50de78df6139:0xda5dc6eebf57936a!8m2!3d-7.8281231!4d110.4475367!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pztqj6zh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+44.557.04/@-7.8281231,110.1591456,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a50de78df6139:0xda5dc6eebf57936a!8m2!3d-7.8281231!4d110.4475367!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pztqj6zh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1680,25 +1644,24 @@
           <t>(021) 8511753</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>5</v>
+      </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>-7.982292</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.982292</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.596364</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mobil+Indostation+Karangrejek+Gunungkidul/@-7.9822925,110.3079733,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb372541cdda5:0xfcfb00f1d5e9563d!8m2!3d-7.9822925!4d110.5963644!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11w3zmpz6z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mobil+Indostation+Karangrejek+Gunungkidul/@-7.9822925,110.3079733,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb372541cdda5:0xfcfb00f1d5e9563d!8m2!3d-7.9822925!4d110.5963644!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11w3zmpz6z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1721,25 +1684,24 @@
           <t>0858-7700-0246</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>-7.825729</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.825729</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.752696</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pertashop+candirejo/@-7.8257293,110.4643053,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a37a0775a6c5b:0xe98ef45950cc85c0!8m2!3d-7.8257293!4d110.7526964!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11ptvdh358?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pertashop+candirejo/@-7.8257293,110.4643053,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a37a0775a6c5b:0xe98ef45950cc85c0!8m2!3d-7.8257293!4d110.7526964!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11ptvdh358?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1758,25 +1720,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.5</v>
+        <v>-7.961461</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.961461</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.723427</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/POM+BENSIN/@-7.8257293,110.4643053,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bcb353bdb43b1:0xea6dc40a8bd11c07!8m2!3d-7.961461!4d110.7234268!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11pz2_025s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/POM+BENSIN/@-7.8257293,110.4643053,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bcb353bdb43b1:0xea6dc40a8bd11c07!8m2!3d-7.961461!4d110.7234268!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11pz2_025s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1795,25 +1756,24 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>5</v>
+      </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>-7.794171</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.794171</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.669827</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertashop+Tancep/@-7.8257293,110.4643053,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a49cb0038bafd:0xf4c0d020a62aeb3e!8m2!3d-7.7941708!4d110.6698269!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11sx535n5h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1832,25 +1792,24 @@
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>-7.952079</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.952079</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.537525</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PERTAMINA/@-7.9520786,110.2491339,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4d4ccca4871b:0x8ba8299cfbe719cd!8m2!3d-7.9520786!4d110.537525!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11tk8m5gds?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PERTAMINA/@-7.9520786,110.2491339,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4d4ccca4871b:0x8ba8299cfbe719cd!8m2!3d-7.9520786!4d110.537525!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11tk8m5gds?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1873,25 +1832,24 @@
           <t>0818-0431-6654</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.1</v>
+        <v>-8.000632</v>
       </c>
       <c r="G38" t="n">
-        <v>-8.000632</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.513361</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertashop+4P.55827+Karangduwet-Paliyan/@-7.9520786,110.2491339,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bad096ed645e5:0xd57029c4dabb9aac!8m2!3d-8.0006318!4d110.5133614!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11p183tkvp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1907,22 +1865,21 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>-7.994298</v>
+      </c>
       <c r="G39" t="n">
-        <v>-7.994298</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.373962</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertashop+Giritirto+Purwosari+Gunungkidul/@-7.9942978,110.085571,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bab5b476bc04d:0x5d0f7d5ba8abd63f!8m2!3d-7.9942978!4d110.3739621!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11pcltbdr1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1938,22 +1895,21 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>-7.987596</v>
+      </c>
       <c r="G40" t="n">
-        <v>-7.987596</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.544742</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pampang+Gunungkidul/@-7.9875964,110.2563505,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb28ca8b3802f:0x4eba282c320cebaf!8m2!3d-7.9875964!4d110.5447416!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11w1qwm4xj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1972,25 +1928,24 @@
           <t>0852-2790-9500</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>-7.938561</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.938561</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.534388</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PERTASHOP+NGUNUT+PLAYEN/@-7.9875964,110.2563505,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4d70ed427d27:0xcf92e8002aaece50!8m2!3d-7.9385608!4d110.5343884!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11syqg8lvc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PERTASHOP+NGUNUT+PLAYEN/@-7.9875964,110.2563505,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4d70ed427d27:0xcf92e8002aaece50!8m2!3d-7.9385608!4d110.5343884!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11syqg8lvc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2013,25 +1968,24 @@
           <t>(0274) 4398704</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.3</v>
+        <v>-7.788445</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.788445</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.482596</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.21+Bokoharjo/@-7.9875964,110.2563505,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a5a825c529dc5:0xe286bee81353bea5!8m2!3d-7.7884453!4d110.4825956!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzq_nslc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2050,25 +2004,24 @@
           <t>0812-6333-3644</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>5</v>
+      </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>-8.105086</v>
       </c>
       <c r="G43" t="n">
-        <v>-8.105086</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.690672</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertashop+Pertamax+92+%26+Toko+Sembako+Giripanggung,+Tepus,+Yogyakarta+Istimewa/@-8.1050856,110.4022806,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb728488e8049:0x898eea72d012be41!8m2!3d-8.1050856!4d110.6906717!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11sgn_dgkh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2083,25 +2036,24 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>-7.977476</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.977476</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.627394</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+ECERAN/@-8.1050856,110.4022806,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb5250e6f6f87:0x53b27471ff976814!8m2!3d-7.9774761!4d110.6273943!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11jzqw_13s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2116,25 +2068,24 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.6</v>
+        <v>-8.064692000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>-8.064692000000001</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.512398</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Terdekat+Pertashop+SAPUJAGAD/@-8.064692,110.2240069,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bafb7bbab234f:0x6300f6e8f280dbba!8m2!3d-8.064692!4d110.512398!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11sx5w8dxt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Terdekat+Pertashop+SAPUJAGAD/@-8.064692,110.2240069,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bafb7bbab234f:0x6300f6e8f280dbba!8m2!3d-8.064692!4d110.512398!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11sx5w8dxt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -2157,25 +2108,24 @@
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.4</v>
+        <v>-7.832195</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.832195</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.461266</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/44.557.08+SPBU+PAYAK/@-7.8321952,110.1728752,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a50e2a9d6c291:0xa0d052714c6abdb7!8m2!3d-7.8321952!4d110.4612663!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzpzxb4l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/44.557.08+SPBU+PAYAK/@-7.8321952,110.1728752,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a50e2a9d6c291:0xa0d052714c6abdb7!8m2!3d-7.8321952!4d110.4612663!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzpzxb4l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -2194,25 +2144,24 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>-7.990417</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.990417</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.570895</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PERTASHOP+4P55828/@-7.8321952,110.1728752,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb39b20e80da3:0xeb2b20b68f4348e9!8m2!3d-7.9904168!4d110.5708946!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11smryxs7s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2231,25 +2180,24 @@
           <t>0838-4603-2258</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>-7.845674</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.845674</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.592581</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PERTASHOP+HARGOMULYO+GEDANGSARI/@-7.8321952,110.1728752,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4f5071c9eeb1:0x80d2f100f7573c56!8m2!3d-7.8456743!4d110.5925813!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11t54v0xnk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2264,25 +2212,24 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.3</v>
+        <v>-8.036440000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>-8.036440000000001</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.469065</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rayyan+Pom+Mini/@-7.8321952,110.1728752,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bad0e94747a99:0x76c465762f2e0c00!8m2!3d-8.0364399!4d110.4690645!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11f7r3t_06?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rayyan+Pom+Mini/@-7.8321952,110.1728752,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bad0e94747a99:0x76c465762f2e0c00!8m2!3d-8.0364399!4d110.4690645!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11f7r3t_06?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2301,25 +2248,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>-8.039535000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>-8.039535000000001</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.446528</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pom+Mini+Danik/@-7.8321952,110.1728752,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7baf0026567a95:0x658bb3e3dffc022f!8m2!3d-8.0395347!4d110.4465283!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11ld92b2gg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2334,25 +2280,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>3</v>
+      </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>-7.945846</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.945846</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.558918</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/%EA%A7%8B%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%A9%EA%A7%80%EA%A6%A7%EA%A6%BA%EA%A6%A4%EA%A7%80%EA%A6%B1%EA%A6%B6%EA%A6%A4%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%AD%EA%A6%AA%EA%A6%BA%EA%A6%A4%EA%A7%80/@-7.8321952,110.1728752,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4d6d20267f3f:0x8ba9831bb3c6eb69!8m2!3d-7.9458458!4d110.5589179!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11sj645c1q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2367,25 +2312,24 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F52" t="n">
-        <v>3.8</v>
+        <v>-7.815616</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.815616</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.700218</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PERTASHOP+JURANGJERO/@-7.8156164,110.4118269,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a491b4ea1a5bb:0x38b837956a42082c!8m2!3d-7.8156164!4d110.700218!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11kzc3rblz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2400,25 +2344,24 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>-7.961698</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.961698</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.601211</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/POS+SEMENTARA+SATLANTAS+GNK/@-7.8156164,110.4118269,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb39014620ecd:0xc41522e1c1dd29b2!8m2!3d-7.9616981!4d110.6012111!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11gtgfssp2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2433,25 +2376,24 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.8</v>
+        <v>-7.957862</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.957862</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.641598</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertashop+4P55841+Kayuwalang+Wiladeg/@-7.8156164,110.4118269,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb508b39cdf49:0xff0f5ef799742bd1!8m2!3d-7.9578618!4d110.6415983!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rr69dl4y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2466,25 +2408,24 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.1</v>
+        <v>-8.068203</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.068203</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.548753</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pertashop+4P.55840+Giring/@-8.0682032,110.2603615,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb1b4ee8853a7:0xf69c72370ff7735a!8m2!3d-8.0682032!4d110.5487526!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rqtp2_7p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pertashop+4P.55840+Giring/@-8.0682032,110.2603615,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb1b4ee8853a7:0xf69c72370ff7735a!8m2!3d-8.0682032!4d110.5487526!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rqtp2_7p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2503,25 +2444,24 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>-7.957247</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.957247</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.644512</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/bayu+pertamini/@-8.0682032,110.2603615,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb5be41111c33:0x4cefe47832ce0559!8m2!3d-7.9572475!4d110.6445122!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11pxw871jy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2536,25 +2476,24 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.7</v>
+        <v>-8.149369</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.149369</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.709003</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PERTASHOP+4P55822+ds.+Jepitu/@-8.1493686,110.4206121,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb9a17df06a5d:0x40ab570c8476c9f2!8m2!3d-8.1493686!4d110.7090032!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11k44whqm5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2573,25 +2512,24 @@
           <t>0819-0375-5558</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>-7.856042</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.856042</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.585907</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pom+mini+bu+tumpuk/@-7.8560416,110.2975161,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4fe6d6be0043:0x126411444a253c90!8m2!3d-7.8560416!4d110.5859072!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11j6kxlz_s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pom+mini+bu+tumpuk/@-7.8560416,110.2975161,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4fe6d6be0043:0x126411444a253c90!8m2!3d-7.8560416!4d110.5859072!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11j6kxlz_s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2614,25 +2552,24 @@
           <t>0819-9625-9161</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.5</v>
+        <v>-8.004873999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.004873999999999</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.655377</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pom+Mini+Jokowi/@-7.8560416,110.2975161,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb51c7d364319:0xe7c9622006f78e1d!8m2!3d-8.0048737!4d110.6553771!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11fn78c4zq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pom+Mini+Jokowi/@-7.8560416,110.2975161,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb51c7d364319:0xe7c9622006f78e1d!8m2!3d-8.0048737!4d110.6553771!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11fn78c4zq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2651,25 +2588,24 @@
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>-7.960962</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.960962</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.677467</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PERTASHOP+srimpi+4P55809/@-7.8560416,110.2975161,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb5fb40054bf5:0x69265015ba25029f!8m2!3d-7.9609618!4d110.6774668!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11nxpk_rvp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2688,25 +2624,24 @@
           <t>0818-876-115</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>5</v>
+      </c>
       <c r="F61" t="n">
-        <v>5</v>
+        <v>-7.866515</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.866515</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.733137</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertamini+Ook/@-7.8665147,110.4447456,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a359dd0f8820d:0x6bd19a504f3fb272!8m2!3d-7.8665147!4d110.7331367!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11fm_0rfvz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
